--- a/Transfer Function Analysis/Transfer Function Analysis.xlsx
+++ b/Transfer Function Analysis/Transfer Function Analysis.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documents\Personal\Personal Projects\Current Projects\Project Redemptio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documents\Personal\Personal Projects\Current Projects\Project Redemptio\Transfer Function Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF919191-D906-4A1A-9D56-EC2DC2254D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC9B939-8318-45E6-9237-6E25FF1AB098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF Step Tests" sheetId="2" r:id="rId1"/>
     <sheet name="CF Step Tests" sheetId="1" r:id="rId2"/>
+    <sheet name="RIT Step Tests" sheetId="4" r:id="rId3"/>
+    <sheet name="CIT Step Tests" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="17">
   <si>
     <t>Trial</t>
   </si>
@@ -76,6 +78,15 @@
   </si>
   <si>
     <t>g22</t>
+  </si>
+  <si>
+    <t>Step Change in RIT</t>
+  </si>
+  <si>
+    <t>gd11</t>
+  </si>
+  <si>
+    <t>gd21</t>
   </si>
 </sst>
 </file>
@@ -302,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -367,6 +378,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2521,6 +2539,2290 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C431-4F66-8BEC-3AF4630CDA4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="575534848"/>
+        <c:axId val="575534192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="575534848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575534192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="575534192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575534848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RIT Step Tests'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Delay (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11485498687664042"/>
+                  <c:y val="8.2802201808107323E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B354-4F4A-A531-14EF44FAA456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RIT Step Tests'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time constant (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8841207349081363E-2"/>
+                  <c:y val="-0.43842082239720037"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B354-4F4A-A531-14EF44FAA456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RIT Step Tests'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$N$4:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B354-4F4A-A531-14EF44FAA456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="575534848"/>
+        <c:axId val="575534192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="575534848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575534192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="575534192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575534848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RIT Step Tests'!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Delay (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$R$4:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2125000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5BF9-4708-A4D4-F4ED7F6A0F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RIT Step Tests'!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time constant (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$S$4:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5BF9-4708-A4D4-F4ED7F6A0F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RIT Step Tests'!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RIT Step Tests'!$T$4:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5BF9-4708-A4D4-F4ED7F6A0F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="575534848"/>
+        <c:axId val="575534192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="575534848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575534192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="575534192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575534848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CIT Step Tests'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Delay (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11485498687664042"/>
+                  <c:y val="8.2802201808107323E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B7D-42A7-94FB-DC58F54FF124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CIT Step Tests'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time constant (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8841207349081363E-2"/>
+                  <c:y val="-0.43842082239720037"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0B7D-42A7-94FB-DC58F54FF124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CIT Step Tests'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$N$4:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0B7D-42A7-94FB-DC58F54FF124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="575534848"/>
+        <c:axId val="575534192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="575534848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575534192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="575534192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575534848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CIT Step Tests'!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Delay (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$R$4:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2125000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D19-4E5A-9BFE-BC2A0DA71F26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CIT Step Tests'!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time constant (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$S$4:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D19-4E5A-9BFE-BC2A0DA71F26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CIT Step Tests'!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CIT Step Tests'!$T$4:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7D19-4E5A-9BFE-BC2A0DA71F26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2871,6 +5173,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4420,6 +6882,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5093,6 +9619,168 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C3B3D5-91CF-4E73-AE19-71890E85C2A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB94406-B01F-43AF-BC8F-ECDF8AC29B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB73CBCF-C341-418A-8776-AB21255DAEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D047C8-97C4-4288-A7E2-BD9835A60553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5358,8 +10046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D87F79-D790-42C8-83EC-DB929CCE3540}">
   <dimension ref="B1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7322,4 +12010,1678 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FA00DC-9DD3-4744-ADEE-F7FC573BAFA7}">
+  <dimension ref="B1:T27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="4.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="40"/>
+      <c r="T2" s="41"/>
+    </row>
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="36">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>4.2125000000000004</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <f>(2/10)</f>
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="34"/>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>4.2125000000000004</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <f>(2/10)</f>
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="30">
+        <v>10</v>
+      </c>
+      <c r="L4" s="17">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="23">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>10</v>
+      </c>
+      <c r="R4" s="17">
+        <f>G6</f>
+        <v>4.2125000000000004</v>
+      </c>
+      <c r="S4" s="17">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="23">
+        <f>I6</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="34"/>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="K5" s="30">
+        <v>20</v>
+      </c>
+      <c r="L5" s="17">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="23">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>20</v>
+      </c>
+      <c r="R5" s="17">
+        <f>G10</f>
+        <v>4.2</v>
+      </c>
+      <c r="S5" s="17">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="23">
+        <f>I10</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="35"/>
+      <c r="C6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="42">
+        <f>AVERAGE(D3:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" ref="E6:I6" si="0">AVERAGE(E3:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="42">
+        <f t="shared" si="0"/>
+        <v>4.2125000000000004</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="44">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="30">
+        <v>30</v>
+      </c>
+      <c r="L6" s="17">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <f>E14</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="23">
+        <f>F14</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>30</v>
+      </c>
+      <c r="R6" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="S6" s="17">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="23">
+        <f>I14</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B7" s="36">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f>5/20</f>
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="30">
+        <v>-10</v>
+      </c>
+      <c r="L7" s="17">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="23">
+        <f>F18</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>-10</v>
+      </c>
+      <c r="R7" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="S7" s="17">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="23">
+        <f>I18</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="34"/>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="30">
+        <v>-20</v>
+      </c>
+      <c r="L8" s="17">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="23">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>-20</v>
+      </c>
+      <c r="R8" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="S8" s="17">
+        <f>H22</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="23">
+        <f>I22</f>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="34"/>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="30">
+        <v>-30</v>
+      </c>
+      <c r="L9" s="17">
+        <f>D26</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <f>E26</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="23">
+        <f>F26</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>-30</v>
+      </c>
+      <c r="R9" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="S9" s="17">
+        <f>H26</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="23">
+        <f>I26</f>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="35"/>
+      <c r="C10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25">
+        <f>AVERAGE(D7:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" ref="E10:I10" si="1">AVERAGE(E7:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="32">
+        <f>AVERAGE(L4:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="32">
+        <f t="shared" ref="M10:N10" si="2">AVERAGE(M4:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="32">
+        <f>AVERAGE(R4:R9)</f>
+        <v>4.2020833333333334</v>
+      </c>
+      <c r="S10" s="32">
+        <f t="shared" ref="S10:T10" si="3">AVERAGE(S4:S9)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="33">
+        <f t="shared" si="3"/>
+        <v>0.23472222222222219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="34">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
+        <f>(675-667)/30</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="34"/>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="34"/>
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="35"/>
+      <c r="C14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="25">
+        <f>AVERAGE(D11:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" ref="E14:I14" si="4">AVERAGE(E11:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="H14" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="4"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B15" s="36">
+        <v>-10</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B16" s="34"/>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="34"/>
+      <c r="C17" s="8">
+        <v>3</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="35"/>
+      <c r="C18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="25">
+        <f>AVERAGE(D15:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" ref="E18:I18" si="5">AVERAGE(E15:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="27">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="36">
+        <v>-20</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <f>(662.5-667)/-20</f>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="34"/>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="34"/>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="35"/>
+      <c r="C22" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="25">
+        <f>AVERAGE(D19:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" ref="E22:I22" si="6">AVERAGE(E19:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" si="6"/>
+        <v>4.2</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
+        <f t="shared" si="6"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="34">
+        <v>-30</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="21">
+        <f>(660.5-667)/-30</f>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="34"/>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="34"/>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="35"/>
+      <c r="C26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="25">
+        <f>AVERAGE(D23:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" ref="E26:I26" si="7">AVERAGE(E23:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="26">
+        <f t="shared" si="7"/>
+        <v>4.2</v>
+      </c>
+      <c r="H26" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" si="7"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF32F574-A14F-4CD1-A394-969BED577BA3}">
+  <dimension ref="B1:T31"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="4.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="40"/>
+      <c r="T2" s="41"/>
+    </row>
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="36">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>4.2125000000000004</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <f>(675-667)/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="34"/>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="K4" s="30">
+        <v>10</v>
+      </c>
+      <c r="L4" s="17">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="23">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>10</v>
+      </c>
+      <c r="R4" s="17">
+        <f>G6</f>
+        <v>4.2125000000000004</v>
+      </c>
+      <c r="S4" s="17">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="23">
+        <f>I6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="34"/>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="K5" s="30">
+        <v>20</v>
+      </c>
+      <c r="L5" s="17">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="23">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>20</v>
+      </c>
+      <c r="R5" s="17">
+        <f>G10</f>
+        <v>4.2</v>
+      </c>
+      <c r="S5" s="17">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="23">
+        <f>I10</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="35"/>
+      <c r="C6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="42">
+        <f>AVERAGE(D3:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" ref="E6:I6" si="0">AVERAGE(E3:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="42">
+        <f t="shared" si="0"/>
+        <v>4.2125000000000004</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="44">
+        <f>AVERAGE(I3:I5)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="30">
+        <v>30</v>
+      </c>
+      <c r="L6" s="17">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <f>E14</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="23">
+        <f>F14</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>30</v>
+      </c>
+      <c r="R6" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="S6" s="17">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="23">
+        <f>I14</f>
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B7" s="36">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f>(683-667)/20</f>
+        <v>0.8</v>
+      </c>
+      <c r="K7" s="30">
+        <v>-10</v>
+      </c>
+      <c r="L7" s="17">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="23">
+        <f>F18</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>-10</v>
+      </c>
+      <c r="R7" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="S7" s="17">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="23">
+        <f>I18</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="34"/>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="30">
+        <v>-20</v>
+      </c>
+      <c r="L8" s="17">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="23">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>-20</v>
+      </c>
+      <c r="R8" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="S8" s="17">
+        <f>H22</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="23">
+        <f>I22</f>
+        <v>0.83750000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="34"/>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="30">
+        <v>-30</v>
+      </c>
+      <c r="L9" s="17">
+        <f>D26</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <f>E26</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="23">
+        <f>F26</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>-30</v>
+      </c>
+      <c r="R9" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="S9" s="17">
+        <f>H26</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="23">
+        <f>I26</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="35"/>
+      <c r="C10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25">
+        <f>AVERAGE(D7:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" ref="E10:I10" si="1">AVERAGE(E7:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="32">
+        <f>AVERAGE(L4:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="32">
+        <f t="shared" ref="M10:N10" si="2">AVERAGE(M4:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="32">
+        <f>AVERAGE(R4:R9)</f>
+        <v>4.2020833333333334</v>
+      </c>
+      <c r="S10" s="32">
+        <f t="shared" ref="S10:T10" si="3">AVERAGE(S4:S9)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81458333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="34">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <f>(691.5-667)/30</f>
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="34"/>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="34"/>
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="35"/>
+      <c r="C14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="25">
+        <f>AVERAGE(D11:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" ref="E14:I14" si="4">AVERAGE(E11:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="H14" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="4"/>
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B15" s="36">
+        <v>-10</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <f>(659-667)/-10</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B16" s="34"/>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="34"/>
+      <c r="C17" s="8">
+        <v>3</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="35"/>
+      <c r="C18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="25">
+        <f>AVERAGE(D15:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" ref="E18:I18" si="5">AVERAGE(E15:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="27">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="36">
+        <v>-20</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <f>(650.25-667)/-20</f>
+        <v>0.83750000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="34"/>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="34"/>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="35"/>
+      <c r="C22" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="25">
+        <f>AVERAGE(D19:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" ref="E22:I22" si="6">AVERAGE(E19:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" si="6"/>
+        <v>4.2</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
+        <f t="shared" si="6"/>
+        <v>0.83750000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="34">
+        <v>-30</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <f>(642-667)/-30</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="34"/>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="34"/>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="35"/>
+      <c r="C26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="25">
+        <f>AVERAGE(D23:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" ref="E26:I26" si="7">AVERAGE(E23:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="26">
+        <f t="shared" si="7"/>
+        <v>4.2</v>
+      </c>
+      <c r="H26" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K31">
+        <f>(675-667)/10</f>
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>